--- a/StructureDefinition-PADI-Header.xlsx
+++ b/StructureDefinition-PADI-Header.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -636,7 +636,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -954,17 +954,21 @@
     <t>legal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
-    <t>professional_attester</t>
+    <t>notary_attester</t>
   </si>
   <si>
     <t>professional</t>
   </si>
   <si>
-    <t>personal_attester</t>
+    <t xml:space="preserve">Reference(RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>witness_attester</t>
   </si>
   <si>
     <t>personal</t>
@@ -4107,7 +4111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>185</v>
       </c>
@@ -4117,13 +4121,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -7226,7 +7230,7 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>292</v>
@@ -7320,7 +7324,7 @@
         <v>252</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>41</v>
@@ -7820,7 +7824,7 @@
         <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>41</v>
@@ -8028,7 +8032,7 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>292</v>
@@ -8119,7 +8123,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8142,19 +8146,19 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8203,7 +8207,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8221,13 +8225,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8235,7 +8239,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8261,13 +8265,13 @@
         <v>253</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8317,7 +8321,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8335,13 +8339,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8349,7 +8353,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8461,7 +8465,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8575,7 +8579,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8691,7 +8695,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8717,13 +8721,13 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8752,10 +8756,10 @@
         <v>164</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -8773,7 +8777,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -8791,13 +8795,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8805,7 +8809,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8828,13 +8832,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8885,7 +8889,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -8903,13 +8907,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8917,7 +8921,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8943,16 +8947,16 @@
         <v>253</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9001,7 +9005,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9019,13 +9023,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9033,7 +9037,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9145,7 +9149,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9259,7 +9263,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9375,7 +9379,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9401,13 +9405,13 @@
         <v>173</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9436,10 +9440,10 @@
         <v>190</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9457,7 +9461,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9481,7 +9485,7 @@
         <v>182</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9489,7 +9493,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9512,13 +9516,13 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9569,7 +9573,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9593,7 +9597,7 @@
         <v>224</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9601,7 +9605,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9624,13 +9628,13 @@
         <v>54</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9681,7 +9685,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9699,7 +9703,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>169</v>
@@ -9713,7 +9717,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9739,10 +9743,10 @@
         <v>253</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9793,7 +9797,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9805,16 +9809,16 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9825,7 +9829,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9937,7 +9941,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10051,7 +10055,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10167,11 +10171,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10193,16 +10197,16 @@
         <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10251,7 +10255,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10283,7 +10287,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10309,16 +10313,16 @@
         <v>173</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10346,10 +10350,10 @@
         <v>190</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>41</v>
@@ -10367,7 +10371,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10399,7 +10403,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10422,13 +10426,13 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10481,7 +10485,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10513,7 +10517,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10536,16 +10540,16 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10595,7 +10599,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10616,7 +10620,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10627,7 +10631,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10653,13 +10657,13 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10709,7 +10713,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10718,7 +10722,7 @@
         <v>53</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>65</v>
@@ -10727,10 +10731,10 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10741,7 +10745,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10767,16 +10771,16 @@
         <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10804,10 +10808,10 @@
         <v>164</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -10825,7 +10829,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10843,7 +10847,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>169</v>
@@ -10857,7 +10861,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10883,16 +10887,16 @@
         <v>173</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -10920,10 +10924,10 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10941,7 +10945,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10959,7 +10963,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>169</v>
@@ -10973,7 +10977,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10996,16 +11000,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11055,7 +11059,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11064,7 +11068,7 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11073,10 +11077,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11087,7 +11091,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11113,16 +11117,16 @@
         <v>173</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11150,10 +11154,10 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11171,7 +11175,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11180,7 +11184,7 @@
         <v>53</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>65</v>
@@ -11189,7 +11193,7 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>169</v>
@@ -11203,7 +11207,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11229,13 +11233,13 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11285,7 +11289,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11294,7 +11298,7 @@
         <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>65</v>
@@ -11303,10 +11307,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-PADI-Header.xlsx
+++ b/StructureDefinition-PADI-Header.xlsx
@@ -414,7 +414,7 @@
     <t>Information Recipient</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Information Recipient Extension records the intended recipient of the advance directive information at the time the document was created.</t>
+    <t>The Information Recipient Extension records the intended recipient of the advance directive information at the time the document was created.</t>
   </si>
   <si>
     <t>ParticipantExtension</t>

--- a/StructureDefinition-PADI-Header.xlsx
+++ b/StructureDefinition-PADI-Header.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -579,10 +579,10 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>Type of a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIAdvanceDirectiveCategoriesVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -4057,11 +4057,9 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
         <v>179</v>
       </c>

--- a/StructureDefinition-PADI-Header.xlsx
+++ b/StructureDefinition-PADI-Header.xlsx
@@ -407,7 +407,7 @@
     <t>InformationRecipientExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-adi/StructureDefinition/padi-informatioRecipient-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-adi/StructureDefinition/padi-informationRecipient-extension}
 </t>
   </si>
   <si>

--- a/StructureDefinition-PADI-Header.xlsx
+++ b/StructureDefinition-PADI-Header.xlsx
@@ -1551,46 +1551,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="24.0078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
